--- a/dnd5e classes and races revised.xlsx
+++ b/dnd5e classes and races revised.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\these\Desktop\Hobbies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32ECD98-A7A6-4803-A333-F8D9801B1DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758D7962-8D10-4255-AB27-C0A325780853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4A11EBD8-63F0-4FFA-B537-D0B87F3A4518}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="377">
   <si>
     <t>Multiclassing requirements are as following:</t>
   </si>
@@ -1013,9 +1013,6 @@
     <t>Calculate HP as [[1 + number of size categories over Tiny] * fullHD] + HDnumber*CONmod (cumulative)</t>
   </si>
   <si>
-    <t>Spell slots and recovery:</t>
-  </si>
-  <si>
     <t>OPTIONAL rule to reduce HP bloat:</t>
   </si>
   <si>
@@ -1170,6 +1167,18 @@
   </si>
   <si>
     <t>Don't throw around magical items, potions and gold like confetti. Remember that most used currency is copper coins with silver ones being used for something bigger than everyday transactions and gold being at least lordly way of paying for something big (like custom full plate, special horse, land or something else)</t>
+  </si>
+  <si>
+    <t>Spell slots, casting and recovery:</t>
+  </si>
+  <si>
+    <t>Attacks of opportunity:</t>
+  </si>
+  <si>
+    <t>Using ranged attacks, spell or not, provokes attacks of opportunity from every hostile creature in melee range. This will encourage both DM and players to rush enemy casters and defend allied ones which they should do anyway. No more Mage Slayer feat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moreover, being hit with an attack of opportunity during cast will make caster roll CON with DC being damage inflicted. This counts for every attack inflicted upon caster. </t>
   </si>
 </sst>
 </file>
@@ -1765,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFECB901-6F04-4F0E-9D26-B63EE05A87CA}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1829,7 +1838,7 @@
         <v>152</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>154</v>
@@ -1849,7 +1858,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1881,7 +1890,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1913,7 +1922,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1945,7 +1954,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1977,7 +1986,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2009,7 +2018,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2041,7 +2050,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2073,7 +2082,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2105,7 +2114,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2137,7 +2146,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -2154,7 +2163,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2171,7 +2180,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -2280,27 +2289,27 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -2310,155 +2319,170 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="24" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="24" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C41" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C42" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C43" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C44" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C45" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C46" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
         <v>309</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F50" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C47" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C48" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C49" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C50" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C51" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B59" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B60" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B62" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B63" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B64" t="s">
-        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2783,12 +2807,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -2863,7 +2887,7 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J4" t="s">
         <v>89</v>
@@ -3297,7 +3321,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
@@ -3342,7 +3366,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3626,7 @@
         <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -3610,7 +3634,7 @@
         <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -3618,7 +3642,7 @@
         <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -3626,7 +3650,7 @@
         <v>123</v>
       </c>
       <c r="J4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -3634,7 +3658,7 @@
         <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -3642,7 +3666,7 @@
         <v>124</v>
       </c>
       <c r="K6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -3650,7 +3674,7 @@
         <v>125</v>
       </c>
       <c r="K7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -3658,12 +3682,12 @@
         <v>126</v>
       </c>
       <c r="K8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="K9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -3677,7 +3701,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -3688,10 +3712,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -3702,10 +3726,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -3719,7 +3743,7 @@
         <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -3730,7 +3754,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -3744,7 +3768,7 @@
         <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -3861,7 +3885,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -3891,7 +3915,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3954,7 +3978,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -4830,12 +4854,12 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -4855,7 +4879,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">

--- a/dnd5e classes and races revised.xlsx
+++ b/dnd5e classes and races revised.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\these\Desktop\Hobbies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758D7962-8D10-4255-AB27-C0A325780853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72938B2A-472B-4F8F-AAE2-395F988FEB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4A11EBD8-63F0-4FFA-B537-D0B87F3A4518}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="8" xr2:uid="{4A11EBD8-63F0-4FFA-B537-D0B87F3A4518}"/>
   </bookViews>
   <sheets>
     <sheet name="General rules" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="391">
   <si>
     <t>Multiclassing requirements are as following:</t>
   </si>
@@ -791,9 +791,6 @@
     <t>Ranger Archetype</t>
   </si>
   <si>
-    <t>Foe Slayer: gain advantage on attack rolls against your favoured enemy</t>
-  </si>
-  <si>
     <t>Feral Senses: ranger's attack rolls against creatures within 30ft of them can't have disadvantage</t>
   </si>
   <si>
@@ -1179,6 +1176,51 @@
   </si>
   <si>
     <t xml:space="preserve">Moreover, being hit with an attack of opportunity during cast will make caster roll CON with DC being damage inflicted. This counts for every attack inflicted upon caster. </t>
+  </si>
+  <si>
+    <t>Bear: 4*10+4*3=52 HP</t>
+  </si>
+  <si>
+    <t>Dire Bear: 4*10+10*5 = 90 HP</t>
+  </si>
+  <si>
+    <t>Beastmaster Feats:</t>
+  </si>
+  <si>
+    <t>Ranger's Companion:</t>
+  </si>
+  <si>
+    <t>No need for favored terrain for stealth movement at normal pace</t>
+  </si>
+  <si>
+    <t>Exceptional training:</t>
+  </si>
+  <si>
+    <t>Attacks are considered magical for the purpose of overcoming resistances and immunities</t>
+  </si>
+  <si>
+    <t>Bestial Fury:</t>
+  </si>
+  <si>
+    <t>Beast gains additional attack for its attack action</t>
+  </si>
+  <si>
+    <t>Share spells:</t>
+  </si>
+  <si>
+    <t>No changes</t>
+  </si>
+  <si>
+    <t>Beast is now connected to ranger mentally and any command to it are free action; it defaults to defending ranger</t>
+  </si>
+  <si>
+    <t>CR 1, size Medium and lower, ProfBonus to attack, AC, damage, saves and skills</t>
+  </si>
+  <si>
+    <t>Beast receives double ProfBonus to AC and saves instead of usual</t>
+  </si>
+  <si>
+    <t>Foe Slayer: gain advantage on attack rolls against your favoured enemy and add your ProfBonus to attack against it</t>
   </si>
 </sst>
 </file>
@@ -1774,10 +1816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFECB901-6F04-4F0E-9D26-B63EE05A87CA}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1838,7 +1880,7 @@
         <v>152</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>154</v>
@@ -1858,7 +1900,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1890,7 +1932,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1922,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1954,7 +1996,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1986,7 +2028,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2018,7 +2060,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2050,7 +2092,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2082,7 +2124,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2114,7 +2156,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2146,7 +2188,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -2163,7 +2205,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2180,7 +2222,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -2188,7 +2230,7 @@
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2214,10 +2256,10 @@
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
       <c r="H17" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="I17" t="s">
         <v>287</v>
-      </c>
-      <c r="I17" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -2231,12 +2273,12 @@
       <c r="F18" s="11"/>
       <c r="H18" s="6"/>
       <c r="I18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2245,12 +2287,12 @@
       <c r="F19" s="11"/>
       <c r="H19" s="6"/>
       <c r="I19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2259,12 +2301,12 @@
       <c r="F20" s="11"/>
       <c r="H20" s="6"/>
       <c r="I20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2274,7 +2316,7 @@
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2289,27 +2331,27 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -2319,100 +2361,100 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B44" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
-        <v>305</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
-        <v>309</v>
-      </c>
-      <c r="F50" t="s">
-        <v>313</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
+        <v>308</v>
+      </c>
+      <c r="F52" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -2422,67 +2464,77 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B56" t="s">
-        <v>301</v>
+      <c r="C56" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
-        <v>353</v>
+      <c r="C57" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="B58" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B63" t="s">
-        <v>366</v>
-      </c>
-    </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B64" t="s">
-        <v>370</v>
+      <c r="A64" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>372</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -2507,22 +2559,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
@@ -2532,17 +2584,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
@@ -2552,7 +2604,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
@@ -2582,47 +2634,47 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
@@ -2632,22 +2684,22 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2677,12 +2729,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
@@ -2697,17 +2749,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
@@ -2717,7 +2769,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
@@ -2727,12 +2779,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2757,47 +2809,47 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
@@ -2807,12 +2859,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2887,7 +2939,7 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J4" t="s">
         <v>89</v>
@@ -3316,12 +3368,12 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
@@ -3366,7 +3418,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3626,7 +3678,7 @@
         <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -3634,7 +3686,7 @@
         <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -3642,7 +3694,7 @@
         <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -3650,7 +3702,7 @@
         <v>123</v>
       </c>
       <c r="J4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -3658,7 +3710,7 @@
         <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -3666,7 +3718,7 @@
         <v>124</v>
       </c>
       <c r="K6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -3674,7 +3726,7 @@
         <v>125</v>
       </c>
       <c r="K7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -3682,12 +3734,12 @@
         <v>126</v>
       </c>
       <c r="K8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="K9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -3701,7 +3753,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -3712,10 +3764,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -3726,10 +3778,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -3743,7 +3795,7 @@
         <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -3754,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -3768,7 +3820,7 @@
         <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -3885,7 +3937,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -3915,7 +3967,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3978,7 +4030,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -4163,10 +4215,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F728600-65A9-42B0-90A6-C845CF156C34}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4824,97 +4876,133 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="J38" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>337</v>
+      </c>
+      <c r="K39" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>338</v>
+      </c>
+      <c r="K40" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
+      <c r="K41" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>252</v>
+      </c>
+      <c r="J42" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>253</v>
+      </c>
+      <c r="K43" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
+      <c r="K44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
+      <c r="J45" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="K46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="J47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>258</v>
+      <c r="K48" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/dnd5e classes and races revised.xlsx
+++ b/dnd5e classes and races revised.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\these\Desktop\Hobbies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72938B2A-472B-4F8F-AAE2-395F988FEB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D349E3-FB74-44B5-B4C8-0698576A3E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="8" xr2:uid="{4A11EBD8-63F0-4FFA-B537-D0B87F3A4518}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4A11EBD8-63F0-4FFA-B537-D0B87F3A4518}"/>
   </bookViews>
   <sheets>
     <sheet name="General rules" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="392">
   <si>
     <t>Multiclassing requirements are as following:</t>
   </si>
@@ -929,9 +929,6 @@
     <t>Scholar's Pack</t>
   </si>
   <si>
-    <t>In addition, classes' level numbers cannot differ by more than 1</t>
-  </si>
-  <si>
     <t>Rage: advantage on STR rolls; rage bonus to melee damage; immunity to fear; can't cast; lasts 1 minute or until incapacitated</t>
   </si>
   <si>
@@ -1070,30 +1067,6 @@
     <t>Multiattack Defense: +2 AC, sums up with each subsequent attack</t>
   </si>
   <si>
-    <t>Strength 15</t>
-  </si>
-  <si>
-    <t>Charisma 15</t>
-  </si>
-  <si>
-    <t>Wisdom 15</t>
-  </si>
-  <si>
-    <t>Strength 15 or Dexterity 15</t>
-  </si>
-  <si>
-    <t>Dexterity 13 and Wisdom 13</t>
-  </si>
-  <si>
-    <t>Strength 13 and Charisma 13</t>
-  </si>
-  <si>
-    <t>Dexterity 15</t>
-  </si>
-  <si>
-    <t>Intelligence 15</t>
-  </si>
-  <si>
     <t>Intimidating Presence: for the duration of rage, every creature that sees you must roll for Wisdom (DC=8+ProfBonus+CHAmod) or be frightened for CHAmod+1 turns</t>
   </si>
   <si>
@@ -1221,6 +1194,36 @@
   </si>
   <si>
     <t>Foe Slayer: gain advantage on attack rolls against your favoured enemy and add your ProfBonus to attack against it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition, if a player gets to multiclass, they stick to new class </t>
+  </si>
+  <si>
+    <t>until they have same amount of levels in it as in ones they had before</t>
+  </si>
+  <si>
+    <t>Strength 17</t>
+  </si>
+  <si>
+    <t>Charisma 17</t>
+  </si>
+  <si>
+    <t>Wisdom 17</t>
+  </si>
+  <si>
+    <t>Strength 17 or Dexterity 17</t>
+  </si>
+  <si>
+    <t>Dexterity 17</t>
+  </si>
+  <si>
+    <t>Intelligence 17</t>
+  </si>
+  <si>
+    <t>Dexterity 15 and Wisdom 15</t>
+  </si>
+  <si>
+    <t>Strength 15 and Charisma 15</t>
   </si>
 </sst>
 </file>
@@ -1816,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFECB901-6F04-4F0E-9D26-B63EE05A87CA}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1880,7 +1883,7 @@
         <v>152</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>154</v>
@@ -1900,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1932,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1964,7 +1967,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1996,7 +1999,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2028,7 +2031,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2060,7 +2063,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2092,7 +2095,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2124,7 +2127,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2156,7 +2159,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2188,7 +2191,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -2205,7 +2208,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2222,63 +2225,58 @@
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="6"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="H17" s="24" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="H18" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="11"/>
-      <c r="H18" s="6"/>
-      <c r="I18" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>295</v>
+        <v>75</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2287,12 +2285,12 @@
       <c r="F19" s="11"/>
       <c r="H19" s="6"/>
       <c r="I19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2301,240 +2299,254 @@
       <c r="F20" s="11"/>
       <c r="H20" s="6"/>
       <c r="I20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="3" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>373</v>
+      <c r="A33" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>374</v>
+      <c r="A36" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>320</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
+      <c r="A41" s="1" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="24" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="24" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C45" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
-        <v>377</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
-        <v>304</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
-        <v>309</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
         <v>308</v>
       </c>
-      <c r="F52" t="s">
-        <v>312</v>
-      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
-        <v>306</v>
+        <v>307</v>
+      </c>
+      <c r="F53" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B58" t="s">
-        <v>300</v>
+      <c r="C58" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>317</v>
+      <c r="B60" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
-        <v>371</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -2859,12 +2871,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2939,7 +2951,7 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J4" t="s">
         <v>89</v>
@@ -3368,12 +3380,12 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
@@ -3418,7 +3430,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -3678,7 +3690,7 @@
         <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -3686,7 +3698,7 @@
         <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -3694,7 +3706,7 @@
         <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -3702,7 +3714,7 @@
         <v>123</v>
       </c>
       <c r="J4" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -3710,7 +3722,7 @@
         <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -3718,7 +3730,7 @@
         <v>124</v>
       </c>
       <c r="K6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -3726,7 +3738,7 @@
         <v>125</v>
       </c>
       <c r="K7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -3734,12 +3746,12 @@
         <v>126</v>
       </c>
       <c r="K8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="K9" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -3753,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -3764,10 +3776,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K11" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -3778,10 +3790,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -3795,7 +3807,7 @@
         <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -3806,7 +3818,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -3820,7 +3832,7 @@
         <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -3937,7 +3949,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -3967,7 +3979,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -4030,7 +4042,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -4217,7 +4229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F728600-65A9-42B0-90A6-C845CF156C34}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -4891,7 +4903,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -4899,7 +4911,7 @@
         <v>249</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -4907,23 +4919,23 @@
         <v>250</v>
       </c>
       <c r="J38" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K39" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K40" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -4931,7 +4943,7 @@
         <v>251</v>
       </c>
       <c r="K41" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -4939,7 +4951,7 @@
         <v>252</v>
       </c>
       <c r="J42" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -4947,15 +4959,15 @@
         <v>253</v>
       </c>
       <c r="K43" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K44" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -4963,7 +4975,7 @@
         <v>254</v>
       </c>
       <c r="J45" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -4971,7 +4983,7 @@
         <v>255</v>
       </c>
       <c r="K46" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -4979,7 +4991,7 @@
         <v>256</v>
       </c>
       <c r="J47" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -4987,7 +4999,7 @@
         <v>257</v>
       </c>
       <c r="K48" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
